--- a/Bin/Server/DataConfig/Excel/Scene.xlsx
+++ b/Bin/Server/DataConfig/Excel/Scene.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\project\ArkGame\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -133,9 +138,6 @@
   </si>
   <si>
     <t>villageScene</t>
-  </si>
-  <si>
-    <t>../../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
     <t>12,4,0</t>
@@ -176,14 +178,73 @@
     <t>Demo1</t>
   </si>
   <si>
+    <t>186,0,88</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DemoSummer</t>
+  </si>
+  <si>
+    <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
+  </si>
+  <si>
+    <t>-7,8,0</t>
+  </si>
+  <si>
+    <t>45,90</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DemoWinter</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>32.25436,1.283986,20.56763</t>
+  </si>
+  <si>
+    <t>UI/ChronoBlade_Caster_wallpaper</t>
+  </si>
+  <si>
+    <t>0,8,-7</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>SelectScene</t>
+  </si>
+  <si>
+    <t>34.10933,1.165174,11.49214</t>
+  </si>
+  <si>
+    <t>../../DataConfig/Ini/Scene/1.xml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
+      <t>DataConfig</t>
     </r>
     <r>
       <rPr>
@@ -192,7 +253,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t>/Ini/Scene/2.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DataConfig</t>
     </r>
     <r>
       <rPr>
@@ -201,27 +278,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>.xml</t>
+      <t>/Ini/Scene/3.xml</t>
     </r>
-  </si>
-  <si>
-    <t>186,0,88</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>DemoSummer</t>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
+      <t>DataConfig</t>
     </r>
     <r>
       <rPr>
@@ -230,7 +303,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
+      <t>/Ini/Scene/4.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DataConfig</t>
     </r>
     <r>
       <rPr>
@@ -239,33 +328,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>.xml</t>
+      <t>/Ini/Scene/5.xml</t>
     </r>
-  </si>
-  <si>
-    <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
-  </si>
-  <si>
-    <t>-7,8,0</t>
-  </si>
-  <si>
-    <t>45,90</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>DemoWinter</t>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
+      <t>DataConfig</t>
     </r>
     <r>
       <rPr>
@@ -274,115 +353,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
+      <t>/Ini/Scene/6.xml</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
-  </si>
-  <si>
-    <t>32.25436,1.283986,20.56763</t>
-  </si>
-  <si>
-    <t>UI/ChronoBlade_Caster_wallpaper</t>
-  </si>
-  <si>
-    <t>0,8,-7</t>
-  </si>
-  <si>
-    <t>45,0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>SelectScene</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
-  </si>
-  <si>
-    <t>34.10933,1.165174,11.49214</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -397,158 +377,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,194 +408,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -878,255 +533,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,59 +582,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1553,15 +930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -1577,7 +953,7 @@
     <col min="14" max="15" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1677,7 +1053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:16">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:16">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:16">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:16">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1877,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1927,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:16">
+    <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +1343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -1984,48 +1360,48 @@
         <v>200</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="H9">
         <v>500</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2033,49 +1409,49 @@
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>45</v>
+      <c r="F10" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>500</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2083,49 +1459,49 @@
       <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>49</v>
+      <c r="F11" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2133,49 +1509,49 @@
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>55</v>
+      <c r="F12" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2183,17 +1559,17 @@
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>58</v>
+      <c r="F13" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2205,27 +1581,27 @@
         <v>0</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -2233,17 +1609,17 @@
       <c r="E14">
         <v>200</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>65</v>
+      <c r="F14" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2255,26 +1631,27 @@
         <v>0</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Bin/Server/DataConfig/Excel/Scene.xlsx
+++ b/Bin/Server/DataConfig/Excel/Scene.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\project\ArkGame\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1646,10 +1646,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
